--- a/medicine/Psychotrope/Le_Thé_à_la_menthe/Le_Thé_à_la_menthe.xlsx
+++ b/medicine/Psychotrope/Le_Thé_à_la_menthe/Le_Thé_à_la_menthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Th%C3%A9_%C3%A0_la_menthe</t>
+          <t>Le_Thé_à_la_menthe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Thé à la menthe est un  film franco-belge réalisé par Abdelkrim Bahloul, sorti en 1984.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Th%C3%A9_%C3%A0_la_menthe</t>
+          <t>Le_Thé_à_la_menthe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamou a quitté l'Algérie pour faire fortune à Paris, et habite dans le quartier Barbès.
 Alors qu'il ne vit que de petits trafics, il se vante auprès de sa mère qu'il gagne bien sa vie, qu'il possède un logement de type F4, une belle 604…
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Th%C3%A9_%C3%A0_la_menthe</t>
+          <t>Le_Thé_à_la_menthe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Le Thé à la menthe
 Réalisation : Abdelkrim Bahloul
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Th%C3%A9_%C3%A0_la_menthe</t>
+          <t>Le_Thé_à_la_menthe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Abdellatif Kechiche : Hamou
 Chafia Boudra : la mère d'Hamou
@@ -619,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_Th%C3%A9_%C3%A0_la_menthe</t>
+          <t>Le_Thé_à_la_menthe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,7 +655,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1984 : Prix du meilleur scénario au Festival international du film de Chicago pour Abdelkrim Bahloul</t>
         </is>
@@ -649,7 +669,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Le_Th%C3%A9_%C3%A0_la_menthe</t>
+          <t>Le_Thé_à_la_menthe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -667,7 +687,9 @@
           <t>Principaux lieux filmés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marché de Barbès (18e)
 Le Sacré-Cœur (18e)
@@ -688,7 +710,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Le_Th%C3%A9_%C3%A0_la_menthe</t>
+          <t>Le_Thé_à_la_menthe</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -706,7 +728,9 @@
           <t>Chansons du film</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Lahlou Tighremt - musique du film
 Lahlou Tighremt - A zine (Métro)
